--- a/data/trans_orig/CONS_PSICO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_PSICO-Clase-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en País Vasco</t>
+          <t>Consumo de psicofármacos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en Andalucia</t>
+          <t>Consumo de psicofármacos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5832,7 +5832,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en C.Valenciana</t>
+          <t>Consumo de psicofármacos en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en Barcelona</t>
+          <t>Consumo de psicofármacos en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/CONS_PSICO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_PSICO-Clase-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11911</t>
+          <t>12550</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9131</t>
+          <t>9521</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15254</t>
+          <t>15886</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,17%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>11973</t>
+          <t>15151</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>12275</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15236</t>
+          <t>19087</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>11,32%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>23884</t>
+          <t>27701</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>20100</t>
+          <t>23428</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>28451</t>
+          <t>32799</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>8,36%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>9,9%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>133899</t>
+          <t>150251</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>130556</t>
+          <t>146915</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>136679</t>
+          <t>153280</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>130918</t>
+          <t>153416</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>127655</t>
+          <t>149480</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>133400</t>
+          <t>156292</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>88,68%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>93,36%</t>
+          <t>92,72%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>264817</t>
+          <t>303667</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>260250</t>
+          <t>298569</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>268601</t>
+          <t>307940</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>90,1%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>93,04%</t>
+          <t>92,93%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>145810</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>142891</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>288701</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7283</t>
+          <t>7354</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5183</t>
+          <t>5314</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10148</t>
+          <t>9969</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,5%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13189</t>
+          <t>14877</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10496</t>
+          <t>11651</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16130</t>
+          <t>18121</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,62%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,78%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>20472</t>
+          <t>22231</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>16961</t>
+          <t>18202</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>24323</t>
+          <t>26530</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,78%</t>
+          <t>12,45%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73889</t>
+          <t>83071</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>71024</t>
+          <t>80456</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>75989</t>
+          <t>85111</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>87,5%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,62%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95928</t>
+          <t>107791</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>92987</t>
+          <t>104547</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>98621</t>
+          <t>111017</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,91%</t>
+          <t>87,87%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>85,22%</t>
+          <t>85,23%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>90,5%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>169817</t>
+          <t>190862</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>165966</t>
+          <t>186563</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>173328</t>
+          <t>194891</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>87,22%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,09%</t>
+          <t>91,46%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81172</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>109117</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>190289</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17099</t>
+          <t>14961</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13655</t>
+          <t>12343</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>21026</t>
+          <t>18187</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11326</t>
+          <t>11799</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8767</t>
+          <t>9126</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13988</t>
+          <t>14599</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>28425</t>
+          <t>26760</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>24362</t>
+          <t>22969</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>32783</t>
+          <t>31132</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>14,45%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>146757</t>
+          <t>138923</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>142830</t>
+          <t>135697</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>150201</t>
+          <t>141541</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>89,56%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>87,17%</t>
+          <t>88,18%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51819</t>
+          <t>49818</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>49157</t>
+          <t>47018</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>54378</t>
+          <t>52491</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>82,06%</t>
+          <t>80,85%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>77,85%</t>
+          <t>76,31%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>85,19%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>198576</t>
+          <t>188741</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>194218</t>
+          <t>184369</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>202639</t>
+          <t>192532</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>87,58%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>85,56%</t>
+          <t>85,55%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>89,34%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>163856</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>63145</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>227001</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19948</t>
+          <t>20929</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16560</t>
+          <t>17485</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>23754</t>
+          <t>24909</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,97%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>29056</t>
+          <t>28598</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25054</t>
+          <t>25056</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33838</t>
+          <t>33197</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>19,1%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>49004</t>
+          <t>49527</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>43248</t>
+          <t>44483</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>54787</t>
+          <t>55965</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>14,11%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>15,78%</t>
+          <t>15,9%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>150141</t>
+          <t>148790</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>146335</t>
+          <t>144810</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>153529</t>
+          <t>152234</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>88,27%</t>
+          <t>87,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>86,03%</t>
+          <t>85,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,26%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>148127</t>
+          <t>153592</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>143345</t>
+          <t>148993</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>152129</t>
+          <t>157134</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>83,6%</t>
+          <t>84,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>80,9%</t>
+          <t>81,78%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>85,86%</t>
+          <t>86,25%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>298267</t>
+          <t>302382</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>292484</t>
+          <t>295944</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>304023</t>
+          <t>307426</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>85,89%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>84,22%</t>
+          <t>84,1%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>87,36%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>170089</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>177183</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>347271</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7311</t>
+          <t>6866</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5284</t>
+          <t>5144</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9868</t>
+          <t>9233</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>27408</t>
+          <t>25894</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>23631</t>
+          <t>22407</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>31771</t>
+          <t>29775</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>20,62%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>17,78%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>34720</t>
+          <t>32759</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>30035</t>
+          <t>28059</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>40053</t>
+          <t>37099</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>18,56%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69540</t>
+          <t>67585</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>66983</t>
+          <t>65218</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>71567</t>
+          <t>69307</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,49%</t>
+          <t>90,78%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,16%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>105524</t>
+          <t>99522</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>101161</t>
+          <t>95641</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>109301</t>
+          <t>103009</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>79,38%</t>
+          <t>79,35%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>76,1%</t>
+          <t>76,26%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>82,22%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>175063</t>
+          <t>167108</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>169730</t>
+          <t>162768</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>179748</t>
+          <t>171808</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>83,45%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>80,91%</t>
+          <t>81,44%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>85,68%</t>
+          <t>85,96%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>76851</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>132932</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>209783</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>307</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>2681</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27124</t>
+          <t>24605</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23088</t>
+          <t>21260</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>31589</t>
+          <t>28203</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>27789</t>
+          <t>25620</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>23572</t>
+          <t>21909</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>32279</t>
+          <t>29940</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>16,99%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,74%</t>
+          <t>16,8%</t>
         </is>
       </c>
     </row>
@@ -2564,32 +2564,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>44596</t>
+          <t>54588</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>43296</t>
+          <t>52922</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>45065</t>
+          <t>55296</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,66%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,57%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>91153</t>
+          <t>97996</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>86688</t>
+          <t>94398</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>95189</t>
+          <t>101341</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>77,07%</t>
+          <t>79,93%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>73,29%</t>
+          <t>77,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>80,48%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>135749</t>
+          <t>152584</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>131259</t>
+          <t>148264</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>139966</t>
+          <t>156295</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>83,01%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>80,26%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>85,59%</t>
+          <t>87,71%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>45261</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>118277</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>163538</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>64218</t>
+          <t>63674</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>57230</t>
+          <t>57357</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>70913</t>
+          <t>70085</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,38%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>120075</t>
+          <t>120924</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>112047</t>
+          <t>112990</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>129369</t>
+          <t>130518</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>17,4%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>184293</t>
+          <t>184598</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>172847</t>
+          <t>173772</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>194453</t>
+          <t>195164</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>13,1%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>618821</t>
+          <t>643209</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>612126</t>
+          <t>636798</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>625809</t>
+          <t>649526</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>623469</t>
+          <t>662135</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>614175</t>
+          <t>652541</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>631497</t>
+          <t>670069</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>83,85%</t>
+          <t>84,56%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>82,6%</t>
+          <t>83,33%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>84,93%</t>
+          <t>85,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1242290</t>
+          <t>1305343</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1232130</t>
+          <t>1294777</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1253736</t>
+          <t>1316169</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>87,08%</t>
+          <t>87,61%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>86,37%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>87,88%</t>
+          <t>88,34%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>683039</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>743544</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1426583</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24910</t>
+          <t>26201</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>47761</t>
+          <t>48603</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3399,12 +3399,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>13,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3419,12 +3419,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21551</t>
+          <t>21249</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>37746</t>
+          <t>37814</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3454,12 +3454,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>51563</t>
+          <t>51312</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>78689</t>
+          <t>79405</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3469,12 +3469,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>7,71%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>11,93%</t>
         </is>
       </c>
     </row>
@@ -3497,12 +3497,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>318922</t>
+          <t>318080</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>341773</t>
+          <t>340482</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3512,12 +3512,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,97%</t>
+          <t>86,75%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3532,12 +3532,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>261155</t>
+          <t>261087</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>277350</t>
+          <t>277652</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3547,12 +3547,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3567,12 +3567,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>586895</t>
+          <t>586179</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>614021</t>
+          <t>614272</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3582,12 +3582,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>88,18%</t>
+          <t>88,07%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>92,25%</t>
+          <t>92,29%</t>
         </is>
       </c>
     </row>
@@ -3727,12 +3727,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16777</t>
+          <t>16676</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35175</t>
+          <t>34725</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3742,12 +3742,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,86%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -3762,12 +3762,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26515</t>
+          <t>26313</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43974</t>
+          <t>43929</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>16,89%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -3797,12 +3797,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>47436</t>
+          <t>46090</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>72466</t>
+          <t>72919</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3812,12 +3812,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>12,48%</t>
         </is>
       </c>
     </row>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>288872</t>
+          <t>289322</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>307270</t>
+          <t>307371</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -3855,12 +3855,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -3875,12 +3875,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>216107</t>
+          <t>216152</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>233566</t>
+          <t>233768</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,09%</t>
+          <t>83,11%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>89,81%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>511662</t>
+          <t>511209</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>536692</t>
+          <t>538038</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -3925,12 +3925,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>92,11%</t>
         </is>
       </c>
     </row>
@@ -4070,12 +4070,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6775</t>
+          <t>8805</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>63712</t>
+          <t>63753</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4085,12 +4085,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,4%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4105,12 +4105,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>18109</t>
+          <t>17996</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>32042</t>
+          <t>31345</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4120,12 +4120,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>18,44%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>32,13%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4140,12 +4140,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>17276</t>
+          <t>16690</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>98187</t>
+          <t>97503</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4155,12 +4155,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>17,02%</t>
         </is>
       </c>
     </row>
@@ -4183,12 +4183,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>411712</t>
+          <t>411671</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>468649</t>
+          <t>466619</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,6%</t>
+          <t>86,59%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,58%</t>
+          <t>98,15%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4218,12 +4218,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>65522</t>
+          <t>66219</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79455</t>
+          <t>79568</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>67,16%</t>
+          <t>67,87%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>81,44%</t>
+          <t>81,56%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4253,12 +4253,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>474801</t>
+          <t>475485</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>555712</t>
+          <t>556298</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4268,12 +4268,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>82,86%</t>
+          <t>82,98%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>97,09%</t>
         </is>
       </c>
     </row>
@@ -4413,12 +4413,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>40276</t>
+          <t>41505</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68406</t>
+          <t>67071</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4428,12 +4428,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4448,12 +4448,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27501</t>
+          <t>27855</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>113080</t>
+          <t>113202</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4483,12 +4483,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>70246</t>
+          <t>74877</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>162074</t>
+          <t>163014</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>13,9%</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>467749</t>
+          <t>469084</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>495879</t>
+          <t>494650</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>87,49%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,49%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>523228</t>
+          <t>523106</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>608807</t>
+          <t>608453</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>82,23%</t>
+          <t>82,21%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4596,12 +4596,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1010388</t>
+          <t>1009448</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1102216</t>
+          <t>1097585</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4611,12 +4611,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>86,1%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,01%</t>
+          <t>93,61%</t>
         </is>
       </c>
     </row>
@@ -4756,12 +4756,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10638</t>
+          <t>11308</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26364</t>
+          <t>26764</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -4791,12 +4791,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>56200</t>
+          <t>53616</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>118697</t>
+          <t>119050</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -4806,12 +4806,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>12,65%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>28,0%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -4826,12 +4826,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>74757</t>
+          <t>77094</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>135618</t>
+          <t>135612</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
@@ -4869,12 +4869,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>184368</t>
+          <t>183968</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>200094</t>
+          <t>199424</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -4884,12 +4884,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>87,3%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>94,63%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>305252</t>
+          <t>304899</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>367749</t>
+          <t>370333</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -4919,12 +4919,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>72,0%</t>
+          <t>71,92%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>86,74%</t>
+          <t>87,35%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -4939,12 +4939,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>499063</t>
+          <t>499069</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>559924</t>
+          <t>557587</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,22%</t>
+          <t>87,85%</t>
         </is>
       </c>
     </row>
@@ -5099,12 +5099,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22666</t>
+          <t>23852</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5114,12 +5114,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,59%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5134,12 +5134,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>81697</t>
+          <t>80798</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>113043</t>
+          <t>111565</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5169,12 +5169,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>88480</t>
+          <t>90854</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>125203</t>
+          <t>128278</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5184,12 +5184,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>19,53%</t>
         </is>
       </c>
     </row>
@@ -5212,12 +5212,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>144095</t>
+          <t>142909</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>163354</t>
+          <t>163471</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5227,12 +5227,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>86,41%</t>
+          <t>85,7%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,96%</t>
+          <t>98,03%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5247,12 +5247,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>376925</t>
+          <t>378403</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>408271</t>
+          <t>409170</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5262,12 +5262,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>76,93%</t>
+          <t>77,23%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>83,33%</t>
+          <t>83,51%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5282,12 +5282,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>531526</t>
+          <t>528451</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>568249</t>
+          <t>565875</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5297,12 +5297,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>80,94%</t>
+          <t>80,47%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>86,53%</t>
+          <t>86,17%</t>
         </is>
       </c>
     </row>
@@ -5442,12 +5442,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>113647</t>
+          <t>105073</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>200406</t>
+          <t>200665</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>253295</t>
+          <t>239502</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>406503</t>
+          <t>403896</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>422375</t>
+          <t>424062</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>586078</t>
+          <t>592377</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5527,12 +5527,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,82%</t>
         </is>
       </c>
     </row>
@@ -5555,12 +5555,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1879396</t>
+          <t>1879137</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1966155</t>
+          <t>1974729</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>94,95%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1800268</t>
+          <t>1802875</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1953476</t>
+          <t>1967269</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>81,58%</t>
+          <t>81,7%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,52%</t>
+          <t>89,15%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5625,12 +5625,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3700495</t>
+          <t>3694196</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3864198</t>
+          <t>3862511</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5640,12 +5640,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>86,33%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>90,11%</t>
         </is>
       </c>
     </row>
@@ -8670,12 +8670,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15534</t>
+          <t>15418</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26602</t>
+          <t>26200</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -8685,12 +8685,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -8705,12 +8705,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>30450</t>
+          <t>30544</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>45835</t>
+          <t>45247</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -8720,12 +8720,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>14,47%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>49109</t>
+          <t>49644</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>67820</t>
+          <t>67573</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -8755,12 +8755,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>16,26%</t>
         </is>
       </c>
     </row>
@@ -8783,12 +8783,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>178666</t>
+          <t>179068</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>189734</t>
+          <t>189850</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -8798,12 +8798,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,04%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>92,49%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -8818,12 +8818,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>164561</t>
+          <t>165149</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>179946</t>
+          <t>179852</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -8833,12 +8833,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>78,21%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>85,53%</t>
+          <t>85,48%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -8853,12 +8853,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>347844</t>
+          <t>348091</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>366555</t>
+          <t>366020</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -8868,12 +8868,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>83,74%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,19%</t>
+          <t>88,06%</t>
         </is>
       </c>
     </row>
@@ -9013,12 +9013,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14853</t>
+          <t>14593</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>26284</t>
+          <t>25662</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -9028,12 +9028,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -9048,12 +9048,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28950</t>
+          <t>29666</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43619</t>
+          <t>43530</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -9063,12 +9063,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>17,2%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -9083,12 +9083,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>47729</t>
+          <t>46589</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>66000</t>
+          <t>66118</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -9098,12 +9098,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>16,28%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>22,55%</t>
         </is>
       </c>
     </row>
@@ -9126,12 +9126,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>98664</t>
+          <t>99286</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>110095</t>
+          <t>110355</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -9141,12 +9141,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>78,96%</t>
+          <t>79,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,11%</t>
+          <t>88,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -9161,12 +9161,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>124664</t>
+          <t>124753</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>139333</t>
+          <t>138617</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -9176,12 +9176,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>74,08%</t>
+          <t>74,13%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>82,37%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -9196,12 +9196,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>227231</t>
+          <t>227113</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>245502</t>
+          <t>246642</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -9211,12 +9211,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>77,49%</t>
+          <t>77,45%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>83,72%</t>
+          <t>84,11%</t>
         </is>
       </c>
     </row>
@@ -9356,12 +9356,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11715</t>
+          <t>11492</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25696</t>
+          <t>24485</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -9371,12 +9371,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -9391,12 +9391,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>15563</t>
+          <t>16336</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>28222</t>
+          <t>28806</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -9406,12 +9406,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>49,16%</t>
+          <t>50,18%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -9426,12 +9426,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>31134</t>
+          <t>29784</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>49586</t>
+          <t>48427</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -9441,12 +9441,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>20,28%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>32,29%</t>
+          <t>31,54%</t>
         </is>
       </c>
     </row>
@@ -9469,12 +9469,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>70457</t>
+          <t>71668</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84438</t>
+          <t>84661</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -9484,12 +9484,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>73,28%</t>
+          <t>74,54%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,82%</t>
+          <t>88,05%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -9504,12 +9504,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29182</t>
+          <t>28598</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>41841</t>
+          <t>41068</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -9519,12 +9519,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>50,84%</t>
+          <t>49,82%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>72,89%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -9539,12 +9539,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>103971</t>
+          <t>105130</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>122423</t>
+          <t>123773</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -9554,12 +9554,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>67,71%</t>
+          <t>68,46%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>79,72%</t>
+          <t>80,6%</t>
         </is>
       </c>
     </row>
@@ -9699,12 +9699,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15375</t>
+          <t>15440</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28937</t>
+          <t>28235</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -9714,12 +9714,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -9734,12 +9734,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>35892</t>
+          <t>36281</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>54699</t>
+          <t>55695</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -9749,12 +9749,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>22,59%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>34,42%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -9769,12 +9769,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>54135</t>
+          <t>54218</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>77666</t>
+          <t>78459</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -9784,12 +9784,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>24,36%</t>
         </is>
       </c>
     </row>
@@ -9812,12 +9812,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>134205</t>
+          <t>134907</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>147767</t>
+          <t>147702</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,26%</t>
+          <t>82,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -9847,12 +9847,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>104209</t>
+          <t>103213</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>123016</t>
+          <t>122627</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -9862,12 +9862,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>65,58%</t>
+          <t>64,95%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>77,41%</t>
+          <t>77,17%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -9882,12 +9882,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>244385</t>
+          <t>243592</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>267916</t>
+          <t>267833</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -9897,12 +9897,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>75,88%</t>
+          <t>75,64%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>83,19%</t>
+          <t>83,16%</t>
         </is>
       </c>
     </row>
@@ -10042,12 +10042,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7864</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -10057,12 +10057,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -10077,12 +10077,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>18732</t>
+          <t>19172</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>33948</t>
+          <t>33549</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -10092,12 +10092,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>19,83%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>35,95%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -10112,12 +10112,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>22488</t>
+          <t>22581</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>38749</t>
+          <t>40096</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -10127,12 +10127,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>27,06%</t>
         </is>
       </c>
     </row>
@@ -10155,12 +10155,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45845</t>
+          <t>46076</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>51725</t>
+          <t>51716</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -10170,12 +10170,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,31%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -10190,12 +10190,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>60493</t>
+          <t>60892</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>75709</t>
+          <t>75269</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -10205,12 +10205,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>64,05%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>80,17%</t>
+          <t>79,7%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -10225,12 +10225,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>109401</t>
+          <t>108054</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>125662</t>
+          <t>125569</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -10240,12 +10240,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>73,84%</t>
+          <t>72,94%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>84,76%</t>
         </is>
       </c>
     </row>
@@ -10385,12 +10385,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2727</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11824</t>
+          <t>11465</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -10400,12 +10400,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -10420,12 +10420,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8919</t>
+          <t>9050</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18336</t>
+          <t>18294</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -10435,12 +10435,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -10455,12 +10455,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>13556</t>
+          <t>13724</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>25779</t>
+          <t>26249</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -10470,12 +10470,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>26,55%</t>
         </is>
       </c>
     </row>
@@ -10498,12 +10498,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>24723</t>
+          <t>25082</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>33820</t>
+          <t>33736</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -10513,12 +10513,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>67,65%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92,54%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -10533,12 +10533,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>43974</t>
+          <t>44016</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>53391</t>
+          <t>53260</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -10548,12 +10548,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>70,57%</t>
+          <t>70,64%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>85,69%</t>
+          <t>85,48%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -10568,12 +10568,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>73079</t>
+          <t>72609</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>85302</t>
+          <t>85134</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -10583,12 +10583,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>73,92%</t>
+          <t>73,45%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>86,29%</t>
+          <t>86,12%</t>
         </is>
       </c>
     </row>
@@ -10728,12 +10728,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>75642</t>
+          <t>75807</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>103398</t>
+          <t>101618</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -10743,12 +10743,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -10763,12 +10763,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>161146</t>
+          <t>161131</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>196546</t>
+          <t>198986</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -10778,12 +10778,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>21,44%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>26,15%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -10798,12 +10798,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>245742</t>
+          <t>242499</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>292153</t>
+          <t>289864</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -10813,12 +10813,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>20,25%</t>
         </is>
       </c>
     </row>
@@ -10841,12 +10841,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>576369</t>
+          <t>578149</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>604125</t>
+          <t>603960</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -10856,12 +10856,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>84,79%</t>
+          <t>85,05%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>88,85%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -10876,12 +10876,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>555197</t>
+          <t>552757</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>590597</t>
+          <t>590612</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -10891,12 +10891,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>73,85%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>78,56%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -10911,12 +10911,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1139357</t>
+          <t>1141646</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1185768</t>
+          <t>1189011</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -10926,12 +10926,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>79,75%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>82,83%</t>
+          <t>83,06%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/CONS_PSICO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/CONS_PSICO-Clase-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en País Vasco (tasa de respuesta: 99,45%)</t>
+          <t>Consumo de psicofármacos en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12550</t>
+          <t>36665</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9521</t>
+          <t>27097</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15886</t>
+          <t>49454</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15151</t>
+          <t>31625</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12275</t>
+          <t>23901</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19087</t>
+          <t>42011</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>11,32%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>89</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>27701</t>
+          <t>68290</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>23428</t>
+          <t>54532</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>32799</t>
+          <t>84025</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>11,62%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>785</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>150251</t>
+          <t>358722</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>146915</t>
+          <t>345933</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>153280</t>
+          <t>368290</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>90,73%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,24%</t>
+          <t>87,49%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>93,15%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>408</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>153416</t>
+          <t>296001</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>149480</t>
+          <t>285615</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>156292</t>
+          <t>303725</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>90,35%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>88,68%</t>
+          <t>87,18%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>92,72%</t>
+          <t>92,7%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1583</t>
+          <t>765</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>303667</t>
+          <t>654723</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>298569</t>
+          <t>638988</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>307940</t>
+          <t>668481</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>90,1%</t>
+          <t>88,38%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>92,46%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>855</t>
+          <t>399</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>162801</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>455</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>168567</t>
+          <t>327626</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1733</t>
+          <t>854</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>331368</t>
+          <t>723013</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>30</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7354</t>
+          <t>25392</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5314</t>
+          <t>17129</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9969</t>
+          <t>35901</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>14877</t>
+          <t>37568</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11651</t>
+          <t>29174</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>18121</t>
+          <t>47253</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>13,09%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>16,47%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>87</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>22231</t>
+          <t>62959</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>18202</t>
+          <t>49556</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>26530</t>
+          <t>78285</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>12,4%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>83071</t>
+          <t>318955</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>80456</t>
+          <t>308446</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>85111</t>
+          <t>327218</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>92,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,12%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>336</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>107791</t>
+          <t>249372</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>104547</t>
+          <t>239687</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>111017</t>
+          <t>257766</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,87%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>85,23%</t>
+          <t>83,53%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,5%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>640</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>190862</t>
+          <t>568328</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>186563</t>
+          <t>553002</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>194891</t>
+          <t>581731</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>89,57%</t>
+          <t>90,03%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>92,15%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>334</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>90425</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>393</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>122668</t>
+          <t>286940</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1167</t>
+          <t>727</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>213093</t>
+          <t>631287</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14961</t>
+          <t>30277</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12343</t>
+          <t>21347</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18187</t>
+          <t>40998</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>15,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>43</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>11799</t>
+          <t>27284</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9126</t>
+          <t>19964</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14599</t>
+          <t>34849</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>31,26%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>26760</t>
+          <t>57561</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>22969</t>
+          <t>45723</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>31132</t>
+          <t>71970</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>14,45%</t>
+          <t>19,34%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>826</t>
+          <t>227</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>138923</t>
+          <t>230279</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>135697</t>
+          <t>219558</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>141541</t>
+          <t>239209</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>88,38%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>88,18%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,98%</t>
+          <t>91,81%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>120</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>49818</t>
+          <t>84202</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47018</t>
+          <t>76637</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>52491</t>
+          <t>91522</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>80,85%</t>
+          <t>75,53%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>76,31%</t>
+          <t>68,74%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>85,19%</t>
+          <t>82,09%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>347</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>188741</t>
+          <t>314482</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>184369</t>
+          <t>300073</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>192532</t>
+          <t>326320</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>85,55%</t>
+          <t>80,66%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>89,34%</t>
+          <t>87,71%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>261</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>153884</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>61617</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1289</t>
+          <t>424</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215501</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>59868</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>47233</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>75469</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9,81%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12,37%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>122</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>20929</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>17485</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>24909</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>12,33%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>10,3%</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>14,68%</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>176</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28598</t>
+          <t>79819</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25056</t>
+          <t>66815</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33197</t>
+          <t>95085</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>16,3%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>19,41%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>191</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>49527</t>
+          <t>139687</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>44483</t>
+          <t>121526</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>55965</t>
+          <t>160735</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>14,07%</t>
+          <t>12,7%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>14,61%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>148790</t>
+          <t>550114</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>144810</t>
+          <t>534513</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>152234</t>
+          <t>562749</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>87,67%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>87,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>89,7%</t>
+          <t>92,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>547</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>153592</t>
+          <t>410003</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>148993</t>
+          <t>394737</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>157134</t>
+          <t>423007</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>84,3%</t>
+          <t>83,7%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>81,78%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>86,25%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1744</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>302382</t>
+          <t>960116</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>295944</t>
+          <t>939068</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>307426</t>
+          <t>978277</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>85,93%</t>
+          <t>87,3%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>84,1%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>87,36%</t>
+          <t>88,95%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1003</t>
+          <t>563</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>169719</t>
+          <t>609982</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>669</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>182190</t>
+          <t>489822</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2042</t>
+          <t>1232</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>351909</t>
+          <t>1099803</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6866</t>
+          <t>20269</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5144</t>
+          <t>13189</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9233</t>
+          <t>30099</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>5,22%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,4%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>157</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25894</t>
+          <t>100766</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>22407</t>
+          <t>86050</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>29775</t>
+          <t>116104</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>24,7%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>23,74%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>177</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>32759</t>
+          <t>121036</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>28059</t>
+          <t>105416</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>37099</t>
+          <t>139808</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>18,31%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>21,16%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>211</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>67585</t>
+          <t>232577</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>65218</t>
+          <t>222747</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>69307</t>
+          <t>239657</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,78%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,6%</t>
+          <t>88,1%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>94,78%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>583</t>
+          <t>428</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>99522</t>
+          <t>307253</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>95641</t>
+          <t>291915</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>103009</t>
+          <t>321969</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>79,35%</t>
+          <t>75,3%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>76,26%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>82,13%</t>
+          <t>78,91%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>991</t>
+          <t>639</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>167108</t>
+          <t>539830</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>162768</t>
+          <t>521058</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>171808</t>
+          <t>555450</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>83,61%</t>
+          <t>81,69%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>81,44%</t>
+          <t>78,84%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>85,96%</t>
+          <t>84,05%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>451</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74451</t>
+          <t>252846</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>746</t>
+          <t>585</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>125416</t>
+          <t>408019</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>816</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>199867</t>
+          <t>660866</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1015</t>
+          <t>9204</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>3274</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2681</t>
+          <t>23200</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>5,43%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>161</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24605</t>
+          <t>105705</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>21260</t>
+          <t>89809</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>28203</t>
+          <t>122625</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>19,33%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>17,34%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>22,42%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>168</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>25620</t>
+          <t>114909</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>21909</t>
+          <t>99607</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>29940</t>
+          <t>137207</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>16,8%</t>
+          <t>19,15%</t>
         </is>
       </c>
     </row>
@@ -2559,37 +2559,37 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>71</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>54588</t>
+          <t>160293</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>52922</t>
+          <t>146297</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>55296</t>
+          <t>166223</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>94,57%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>86,31%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>99,45%</t>
+          <t>98,07%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,67 +2599,67 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>97996</t>
+          <t>441169</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>94398</t>
+          <t>424249</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>101341</t>
+          <t>457065</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>79,93%</t>
+          <t>80,67%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>77,0%</t>
+          <t>77,58%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>82,66%</t>
+          <t>83,58%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>608</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>152584</t>
+          <t>601462</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>148264</t>
+          <t>579164</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>156295</t>
+          <t>616764</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>85,62%</t>
+          <t>83,96%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>83,2%</t>
+          <t>80,85%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>87,71%</t>
+          <t>86,1%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>55603</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>698</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>122601</t>
+          <t>546874</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>961</t>
+          <t>776</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>178204</t>
+          <t>716371</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>202</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>63674</t>
+          <t>181674</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>57357</t>
+          <t>153985</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>70085</t>
+          <t>208253</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>8,94%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>730</t>
+          <t>587</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>120924</t>
+          <t>382768</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>112990</t>
+          <t>353223</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>130518</t>
+          <t>414443</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
+          <t>16,27%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>19,09%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>564442</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>525243</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>606486</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>12,5%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
           <t>14,43%</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>16,67%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>1107</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>184598</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>173772</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>195164</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>12,39%</t>
-        </is>
-      </c>
-      <c r="V22" s="2" t="inlineStr">
-        <is>
-          <t>11,66%</t>
-        </is>
-      </c>
-      <c r="W22" s="2" t="inlineStr">
-        <is>
-          <t>13,1%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>643209</t>
+          <t>1850941</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>636798</t>
+          <t>1824362</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>649526</t>
+          <t>1878630</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>90,99%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>90,09%</t>
+          <t>89,75%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3666</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>662135</t>
+          <t>1788000</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>652541</t>
+          <t>1756325</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>670069</t>
+          <t>1817545</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>84,56%</t>
+          <t>82,37%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>83,33%</t>
+          <t>80,91%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
+          <t>83,73%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>4040</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>3638941</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>3596897</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>3678140</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>86,57%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
           <t>85,57%</t>
         </is>
       </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>7282</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>1305343</t>
-        </is>
-      </c>
-      <c r="S23" s="2" t="inlineStr">
-        <is>
-          <t>1294777</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="inlineStr">
-        <is>
-          <t>1316169</t>
-        </is>
-      </c>
-      <c r="U23" s="2" t="inlineStr">
-        <is>
-          <t>87,61%</t>
-        </is>
-      </c>
-      <c r="V23" s="2" t="inlineStr">
-        <is>
-          <t>86,9%</t>
-        </is>
-      </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>88,34%</t>
+          <t>87,5%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>706883</t>
+          <t>2032615</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>2963</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>783059</t>
+          <t>2170768</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>8389</t>
+          <t>4829</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1489941</t>
+          <t>4203383</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3189,7 +3189,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de psicofármacos en Barcelona (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3374,107 +3374,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>35880</t>
+          <t>20329</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26201</t>
+          <t>15418</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>48603</t>
+          <t>26200</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28631</t>
+          <t>37117</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>21249</t>
+          <t>30544</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>37814</t>
+          <t>45247</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>21,51%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>180</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>64511</t>
+          <t>57447</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>51312</t>
+          <t>49644</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>79405</t>
+          <t>67573</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>16,26%</t>
         </is>
       </c>
     </row>
@@ -3487,107 +3487,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>537</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>330803</t>
+          <t>184939</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>318080</t>
+          <t>179068</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>340482</t>
+          <t>189850</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>90,22%</t>
+          <t>90,1%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,75%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>92,49%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>497</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>270270</t>
+          <t>173279</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>261087</t>
+          <t>165149</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>277652</t>
+          <t>179852</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,42%</t>
+          <t>82,36%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>78,49%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>85,48%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>765</t>
+          <t>1034</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>601073</t>
+          <t>358217</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>586179</t>
+          <t>348091</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>614272</t>
+          <t>366020</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>86,18%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>88,07%</t>
+          <t>83,74%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>88,06%</t>
         </is>
       </c>
     </row>
@@ -3600,22 +3600,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>399</t>
+          <t>600</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205268</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205268</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>205268</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3635,22 +3635,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>614</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>298901</t>
+          <t>210396</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -3670,22 +3670,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>854</t>
+          <t>1214</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>415664</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>415664</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>665584</t>
+          <t>415664</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -3717,107 +3717,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>24530</t>
+          <t>19861</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16676</t>
+          <t>14593</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34725</t>
+          <t>25662</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>20,54%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>96</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>34375</t>
+          <t>36059</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26313</t>
+          <t>29666</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43929</t>
+          <t>43530</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,22%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>17,63%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>16,89%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>146</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>58905</t>
+          <t>55919</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>46090</t>
+          <t>46589</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>72919</t>
+          <t>66118</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>22,55%</t>
         </is>
       </c>
     </row>
@@ -3830,107 +3830,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>299517</t>
+          <t>105087</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>289322</t>
+          <t>99286</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>307371</t>
+          <t>110355</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>84,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,28%</t>
+          <t>79,46%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>88,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>332</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>225706</t>
+          <t>132224</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>216152</t>
+          <t>124753</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>233768</t>
+          <t>138617</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,11%</t>
+          <t>74,13%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>82,37%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>640</t>
+          <t>582</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>525223</t>
+          <t>237312</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>511209</t>
+          <t>227113</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>538038</t>
+          <t>246642</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>80,93%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>77,45%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>92,11%</t>
+          <t>84,11%</t>
         </is>
       </c>
     </row>
@@ -3943,22 +3943,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>300</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>124948</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -3978,22 +3978,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>428</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>168283</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>168283</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>260081</t>
+          <t>168283</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>727</t>
+          <t>728</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293231</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293231</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>584128</t>
+          <t>293231</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4065,102 +4065,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27778</t>
+          <t>17183</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8805</t>
+          <t>11492</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>63753</t>
+          <t>24485</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>24431</t>
+          <t>21661</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17996</t>
+          <t>16336</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31345</t>
+          <t>28806</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>37,73%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>28,46%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>50,18%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>52209</t>
+          <t>38844</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>16690</t>
+          <t>29784</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>97503</t>
+          <t>48427</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>9,11%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>31,54%</t>
         </is>
       </c>
     </row>
@@ -4173,107 +4173,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>447646</t>
+          <t>78970</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>411671</t>
+          <t>71668</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>466619</t>
+          <t>84661</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,59%</t>
+          <t>74,54%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,15%</t>
+          <t>88,05%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>90</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>73133</t>
+          <t>35743</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66219</t>
+          <t>28598</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>79568</t>
+          <t>41068</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>74,96%</t>
+          <t>62,27%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>67,87%</t>
+          <t>49,82%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>81,56%</t>
+          <t>71,54%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>264</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>520779</t>
+          <t>114713</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>475485</t>
+          <t>105130</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>556298</t>
+          <t>123773</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>74,7%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>82,98%</t>
+          <t>68,46%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>80,6%</t>
         </is>
       </c>
     </row>
@@ -4286,22 +4286,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>261</t>
+          <t>208</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>96153</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4321,22 +4321,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>57404</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4356,22 +4356,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>346</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>153557</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4403,107 +4403,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>52962</t>
+          <t>20999</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>41505</t>
+          <t>15440</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67071</t>
+          <t>28235</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,88%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>17,31%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>89</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>72959</t>
+          <t>44733</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>27855</t>
+          <t>36281</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>113202</t>
+          <t>55695</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>22,83%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>136</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>125921</t>
+          <t>65733</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>74877</t>
+          <t>54218</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>163014</t>
+          <t>78459</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>20,41%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>16,84%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>24,36%</t>
         </is>
       </c>
     </row>
@@ -4516,107 +4516,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>288</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>483193</t>
+          <t>142143</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>469084</t>
+          <t>134907</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>494650</t>
+          <t>147702</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>90,12%</t>
+          <t>87,13%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>87,49%</t>
+          <t>82,69%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>92,26%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>244</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>563349</t>
+          <t>114175</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>523106</t>
+          <t>103213</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>608453</t>
+          <t>122627</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>88,53%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>82,21%</t>
+          <t>64,95%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>77,17%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>532</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1046541</t>
+          <t>256318</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1009448</t>
+          <t>243592</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1097585</t>
+          <t>267833</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>89,26%</t>
+          <t>79,59%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>86,1%</t>
+          <t>75,64%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>83,16%</t>
         </is>
       </c>
     </row>
@@ -4629,22 +4629,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>335</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>536155</t>
+          <t>163142</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4664,22 +4664,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>333</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>636308</t>
+          <t>158908</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4699,22 +4699,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1232</t>
+          <t>668</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1172462</t>
+          <t>322051</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4746,107 +4746,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17397</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>11308</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>26764</t>
+          <t>7633</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>94921</t>
+          <t>25770</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>53616</t>
+          <t>19172</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>119050</t>
+          <t>33549</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>35,52%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>60</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>112318</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>77094</t>
+          <t>22581</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>135612</t>
+          <t>40096</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>20,18%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>27,06%</t>
         </is>
       </c>
     </row>
@@ -4859,107 +4859,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>193335</t>
+          <t>49579</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>183968</t>
+          <t>46076</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>199424</t>
+          <t>51716</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,3%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,63%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>329028</t>
+          <t>68671</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>304899</t>
+          <t>60892</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>370333</t>
+          <t>75269</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>77,61%</t>
+          <t>72,71%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>64,48%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>87,35%</t>
+          <t>79,7%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>227</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>522363</t>
+          <t>118250</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>499069</t>
+          <t>108054</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>557587</t>
+          <t>125569</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>82,3%</t>
+          <t>79,82%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>78,63%</t>
+          <t>72,94%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>84,76%</t>
         </is>
       </c>
     </row>
@@ -4972,22 +4972,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>102</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>210732</t>
+          <t>53709</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5007,22 +5007,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>185</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>423949</t>
+          <t>94441</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>816</t>
+          <t>287</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>634681</t>
+          <t>148150</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5089,107 +5089,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9346</t>
+          <t>5681</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3290</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23852</t>
+          <t>11465</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>7,69%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,3%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>96538</t>
+          <t>13516</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>80798</t>
+          <t>9050</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>111565</t>
+          <t>18294</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>21,69%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>14,52%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>105884</t>
+          <t>19198</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>90854</t>
+          <t>13724</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>128278</t>
+          <t>26249</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>13,83%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>26,55%</t>
         </is>
       </c>
     </row>
@@ -5202,107 +5202,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>157415</t>
+          <t>30866</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>142909</t>
+          <t>25082</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>163471</t>
+          <t>33736</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>94,4%</t>
+          <t>84,46%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>85,7%</t>
+          <t>68,63%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>121</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>393430</t>
+          <t>48794</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>378403</t>
+          <t>44016</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>409170</t>
+          <t>53260</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>80,3%</t>
+          <t>78,31%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>77,23%</t>
+          <t>70,64%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>83,51%</t>
+          <t>85,48%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>608</t>
+          <t>198</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>550845</t>
+          <t>79660</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>528451</t>
+          <t>72609</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>565875</t>
+          <t>85134</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>83,88%</t>
+          <t>80,58%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>80,47%</t>
+          <t>73,45%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>86,17%</t>
+          <t>86,12%</t>
         </is>
       </c>
     </row>
@@ -5315,22 +5315,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>36547</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5350,22 +5350,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>154</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62310</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62310</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>489968</t>
+          <t>62310</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5385,22 +5385,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>776</t>
+          <t>244</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98858</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98858</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>656729</t>
+          <t>98858</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5432,107 +5432,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>217</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>167892</t>
+          <t>88183</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>105073</t>
+          <t>75807</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>200665</t>
+          <t>101618</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>8,07%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,65%</t>
+          <t>14,95%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>433</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>351856</t>
+          <t>178857</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>239502</t>
+          <t>161131</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>403896</t>
+          <t>198986</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>23,79%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>21,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>18,3%</t>
+          <t>26,47%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>789</t>
+          <t>650</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>519748</t>
+          <t>267040</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>424062</t>
+          <t>242499</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>592377</t>
+          <t>289864</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>18,65%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>20,25%</t>
         </is>
       </c>
     </row>
@@ -5545,107 +5545,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1664</t>
+          <t>1418</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1911910</t>
+          <t>591584</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1879137</t>
+          <t>578149</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1974729</t>
+          <t>603960</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>90,35%</t>
+          <t>85,05%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>88,85%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>1419</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1854915</t>
+          <t>572886</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>1802875</t>
+          <t>552757</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>1967269</t>
+          <t>590612</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>84,06%</t>
+          <t>76,21%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>81,7%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>78,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>4040</t>
+          <t>2837</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>3766825</t>
+          <t>1164470</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>3694196</t>
+          <t>1141646</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>3862511</t>
+          <t>1189011</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>87,87%</t>
+          <t>81,35%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>86,18%</t>
+          <t>79,75%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>90,11%</t>
+          <t>83,06%</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5658,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>1635</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>679767</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>679767</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2079802</t>
+          <t>679767</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -5693,22 +5693,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2963</t>
+          <t>1852</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>751743</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>751743</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>2206771</t>
+          <t>751743</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -5728,22 +5728,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>4829</t>
+          <t>3487</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>1431510</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>1431510</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>4286573</t>
+          <t>1431510</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -8475,7 +8475,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de psicofármacos en Barcelona (tasa de respuesta: 99,86%)</t>
+          <t>Consumo de psicofármacos en País Vasco (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8660,107 +8660,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>70</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20329</t>
+          <t>12550</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15418</t>
+          <t>9521</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26200</t>
+          <t>15886</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5,85%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9,76%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>15151</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12275</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19087</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,32%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>27701</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>23428</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>32799</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
           <t>9,9%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,51%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>12,76%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>37117</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>30544</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>45247</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>17,64%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>14,52%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>21,51%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>180</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>57447</t>
-        </is>
-      </c>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>49644</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>67573</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr">
-        <is>
-          <t>13,82%</t>
-        </is>
-      </c>
-      <c r="V4" s="2" t="inlineStr">
-        <is>
-          <t>11,94%</t>
-        </is>
-      </c>
-      <c r="W4" s="2" t="inlineStr">
-        <is>
-          <t>16,26%</t>
         </is>
       </c>
     </row>
@@ -8773,107 +8773,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>537</t>
+          <t>785</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>184939</t>
+          <t>150251</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>179068</t>
+          <t>146915</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>189850</t>
+          <t>153280</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>92,29%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>90,24%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>94,15%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>798</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>153416</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>149480</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>156292</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>91,01%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>88,68%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>92,72%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1583</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>303667</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>298569</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>307940</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>91,64%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
           <t>90,1%</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>87,24%</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>92,49%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>497</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>173279</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>165149</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>179852</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>82,36%</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>78,49%</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>85,48%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>1034</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>358217</t>
-        </is>
-      </c>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>348091</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr">
-        <is>
-          <t>366020</t>
-        </is>
-      </c>
-      <c r="U5" s="2" t="inlineStr">
-        <is>
-          <t>86,18%</t>
-        </is>
-      </c>
-      <c r="V5" s="2" t="inlineStr">
-        <is>
-          <t>83,74%</t>
-        </is>
-      </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>88,06%</t>
+          <t>92,93%</t>
         </is>
       </c>
     </row>
@@ -8886,22 +8886,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>855</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>205268</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>205268</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>205268</t>
+          <t>162801</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -8921,22 +8921,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>878</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>210396</t>
+          <t>168567</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8956,22 +8956,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1214</t>
+          <t>1733</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>415664</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>415664</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>415664</t>
+          <t>331368</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -9003,107 +9003,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19861</t>
+          <t>7354</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14593</t>
+          <t>5314</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25662</t>
+          <t>9969</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36059</t>
+          <t>14877</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29666</t>
+          <t>11651</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43530</t>
+          <t>18121</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>9,5%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>128</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>55919</t>
+          <t>22231</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>46589</t>
+          <t>18202</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>66118</t>
+          <t>26530</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>8,54%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>12,45%</t>
         </is>
       </c>
     </row>
@@ -9116,107 +9116,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>452</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>105087</t>
+          <t>83071</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99286</t>
+          <t>80456</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>110355</t>
+          <t>85111</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>84,1%</t>
+          <t>91,87%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,46%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>587</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>132224</t>
+          <t>107791</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>124753</t>
+          <t>104547</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>138617</t>
+          <t>111017</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>78,57%</t>
+          <t>87,87%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>74,13%</t>
+          <t>85,23%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>82,37%</t>
+          <t>90,5%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>237312</t>
+          <t>190862</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>227113</t>
+          <t>186563</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>246642</t>
+          <t>194891</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>80,93%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>77,45%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>84,11%</t>
+          <t>91,46%</t>
         </is>
       </c>
     </row>
@@ -9229,22 +9229,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>494</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>124948</t>
+          <t>90425</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -9264,22 +9264,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>673</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>168283</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>168283</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>168283</t>
+          <t>122668</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -9299,22 +9299,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>728</t>
+          <t>1167</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>293231</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>293231</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>293231</t>
+          <t>213093</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -9346,107 +9346,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17183</t>
+          <t>14961</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11492</t>
+          <t>12343</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24485</t>
+          <t>18187</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,87%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,95%</t>
+          <t>8,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,46%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21661</t>
+          <t>11799</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16336</t>
+          <t>9126</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>28806</t>
+          <t>14599</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>50,18%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>165</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>38844</t>
+          <t>26760</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>29784</t>
+          <t>22969</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>48427</t>
+          <t>31132</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>25,3%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>31,54%</t>
+          <t>14,45%</t>
         </is>
       </c>
     </row>
@@ -9459,107 +9459,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>826</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78970</t>
+          <t>138923</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71668</t>
+          <t>135697</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>84661</t>
+          <t>141541</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,13%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>74,54%</t>
+          <t>88,18%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>88,05%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>298</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35743</t>
+          <t>49818</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28598</t>
+          <t>47018</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>41068</t>
+          <t>52491</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>62,27%</t>
+          <t>80,85%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>49,82%</t>
+          <t>76,31%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>71,54%</t>
+          <t>85,19%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>114713</t>
+          <t>188741</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>105130</t>
+          <t>184369</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>123773</t>
+          <t>192532</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>74,7%</t>
+          <t>87,58%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>68,46%</t>
+          <t>85,55%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>80,6%</t>
+          <t>89,34%</t>
         </is>
       </c>
     </row>
@@ -9572,22 +9572,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>922</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>96153</t>
+          <t>153884</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -9607,22 +9607,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>367</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>57404</t>
+          <t>61617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -9642,22 +9642,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>153557</t>
+          <t>215501</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -9689,107 +9689,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>122</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20999</t>
+          <t>20929</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15440</t>
+          <t>17485</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28235</t>
+          <t>24909</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>176</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44733</t>
+          <t>28598</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36281</t>
+          <t>25056</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>55695</t>
+          <t>33197</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>13,75%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>298</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>65733</t>
+          <t>49527</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>54218</t>
+          <t>44483</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>78459</t>
+          <t>55965</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>20,41%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>15,9%</t>
         </is>
       </c>
     </row>
@@ -9802,107 +9802,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>881</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>142143</t>
+          <t>148790</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>134907</t>
+          <t>144810</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>147702</t>
+          <t>152234</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>87,13%</t>
+          <t>87,67%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,69%</t>
+          <t>85,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>90,54%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>863</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>114175</t>
+          <t>153592</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>103213</t>
+          <t>148993</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>122627</t>
+          <t>157134</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>71,85%</t>
+          <t>84,3%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>64,95%</t>
+          <t>81,78%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>77,17%</t>
+          <t>86,25%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>1744</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>256318</t>
+          <t>302382</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>243592</t>
+          <t>295944</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>267833</t>
+          <t>307426</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>79,59%</t>
+          <t>85,93%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>75,64%</t>
+          <t>84,1%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>83,16%</t>
+          <t>87,36%</t>
         </is>
       </c>
     </row>
@@ -9915,22 +9915,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>163142</t>
+          <t>169719</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -9950,22 +9950,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>1039</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>158908</t>
+          <t>182190</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -9985,22 +9985,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>2042</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>322051</t>
+          <t>351909</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -10032,107 +10032,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>6866</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>5144</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>7633</t>
+          <t>9233</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>12,4%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>163</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>25770</t>
+          <t>25894</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>19172</t>
+          <t>22407</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>33549</t>
+          <t>29775</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>20,3%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>35,52%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>206</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>32759</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>22581</t>
+          <t>28059</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>40096</t>
+          <t>37099</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>14,04%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>27,06%</t>
+          <t>18,56%</t>
         </is>
       </c>
     </row>
@@ -10145,107 +10145,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>408</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>49579</t>
+          <t>67585</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>46076</t>
+          <t>65218</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>51716</t>
+          <t>69307</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>90,78%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>85,79%</t>
+          <t>87,6%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>583</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>68671</t>
+          <t>99522</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>60892</t>
+          <t>95641</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>75269</t>
+          <t>103009</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>72,71%</t>
+          <t>79,35%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>64,48%</t>
+          <t>76,26%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>79,7%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>991</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>118250</t>
+          <t>167108</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>108054</t>
+          <t>162768</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>125569</t>
+          <t>171808</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>72,94%</t>
+          <t>81,44%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>84,76%</t>
+          <t>85,96%</t>
         </is>
       </c>
     </row>
@@ -10258,22 +10258,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>451</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>53709</t>
+          <t>74451</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -10293,22 +10293,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>746</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>94441</t>
+          <t>125416</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -10328,22 +10328,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>148150</t>
+          <t>199867</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -10375,107 +10375,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>5681</t>
+          <t>1015</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2811</t>
+          <t>307</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11465</t>
+          <t>2681</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,37%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>156</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>13516</t>
+          <t>24605</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>9050</t>
+          <t>21260</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18294</t>
+          <t>28203</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>21,69%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>29,36%</t>
+          <t>23,0%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>160</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>19198</t>
+          <t>25620</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>13724</t>
+          <t>21909</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>26249</t>
+          <t>29940</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>16,8%</t>
         </is>
       </c>
     </row>
@@ -10488,107 +10488,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>264</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>30866</t>
+          <t>54588</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>25082</t>
+          <t>52922</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>33736</t>
+          <t>55296</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>84,46%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>68,63%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92,31%</t>
+          <t>99,45%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>537</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>48794</t>
+          <t>97996</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>44016</t>
+          <t>94398</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>53260</t>
+          <t>101341</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>78,31%</t>
+          <t>79,93%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>70,64%</t>
+          <t>77,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>85,48%</t>
+          <t>82,66%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>801</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>79660</t>
+          <t>152584</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>72609</t>
+          <t>148264</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>85134</t>
+          <t>156295</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>80,58%</t>
+          <t>85,62%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>73,45%</t>
+          <t>83,2%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>86,12%</t>
+          <t>87,71%</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>268</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36547</t>
+          <t>55603</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -10636,22 +10636,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>693</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>62310</t>
+          <t>122601</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -10671,22 +10671,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>961</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>98858</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>98858</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>98858</t>
+          <t>178204</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -10718,107 +10718,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>377</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>88183</t>
+          <t>63674</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>75807</t>
+          <t>57357</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>101618</t>
+          <t>70085</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>730</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>178857</t>
+          <t>120924</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>161131</t>
+          <t>112990</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>198986</t>
+          <t>130518</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>14,43%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>26,47%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>267040</t>
+          <t>184598</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>242499</t>
+          <t>173772</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>289864</t>
+          <t>195164</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>20,25%</t>
+          <t>13,1%</t>
         </is>
       </c>
     </row>
@@ -10831,107 +10831,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1418</t>
+          <t>3616</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>591584</t>
+          <t>643209</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>578149</t>
+          <t>636798</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>603960</t>
+          <t>649526</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>87,03%</t>
+          <t>90,99%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>88,85%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>572886</t>
+          <t>662135</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>552757</t>
+          <t>652541</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>590612</t>
+          <t>670069</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>76,21%</t>
+          <t>84,56%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>73,53%</t>
+          <t>83,33%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>78,57%</t>
+          <t>85,57%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>2837</t>
+          <t>7282</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>1164470</t>
+          <t>1305343</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>1141646</t>
+          <t>1294777</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>1189011</t>
+          <t>1316169</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>81,35%</t>
+          <t>87,61%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>79,75%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>83,06%</t>
+          <t>88,34%</t>
         </is>
       </c>
     </row>
@@ -10944,22 +10944,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1635</t>
+          <t>3993</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>679767</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>679767</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>679767</t>
+          <t>706883</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -10979,22 +10979,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>751743</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>751743</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>751743</t>
+          <t>783059</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -11014,22 +11014,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>3487</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>1431510</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>1431510</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>1431510</t>
+          <t>1489941</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
